--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Lambda\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB439EE7-A4B1-4DD4-9BEA-5164E84FCAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA48124-234F-4298-9FD6-3EF0B2AB2323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37545" yWindow="2895" windowWidth="7500" windowHeight="10950" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводка" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>Планирование</t>
   </si>
@@ -777,10 +777,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,6 +849,22 @@
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <v>0.53125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45086</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.63263888888888886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="2">
+        <v>0.65625</v>
       </c>
     </row>
   </sheetData>

--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Lambda\cleanarch\00_task\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA48124-234F-4298-9FD6-3EF0B2AB2323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D508EE-3BAE-4B07-AB49-E81E1224CF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Планирование</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>туалет</t>
+  </si>
+  <si>
+    <t>Неудачно выбран диапазон углов</t>
+  </si>
+  <si>
+    <t>Непродуманная система типов</t>
   </si>
 </sst>
 </file>
@@ -777,10 +783,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -867,6 +873,17 @@
         <v>0.65625</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>45087</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.34166666666666662</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{BFD2BB00-6378-472B-9B2B-75A730D614EE}">
@@ -880,18 +897,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92537BEB-AFE4-4F81-B9DE-E14F7EC23022}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
     <col min="3" max="4" width="23.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
     <col min="7" max="7" width="36.7109375" customWidth="1"/>
   </cols>
@@ -917,6 +934,29 @@
       </c>
       <c r="G1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D508EE-3BAE-4B07-AB49-E81E1224CF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66020472-D88D-450F-8BD2-B867A2DC21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Планирование</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>Непродуманная система типов</t>
+  </si>
+  <si>
+    <t>ребёнок</t>
+  </si>
+  <si>
+    <t>ScrollLock</t>
   </si>
 </sst>
 </file>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -882,6 +888,37 @@
       </c>
       <c r="C13" s="2">
         <v>0.34166666666666662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="2">
+        <v>0.37986111111111115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="2">
+        <v>0.3840277777777778</v>
       </c>
     </row>
   </sheetData>

--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66020472-D88D-450F-8BD2-B867A2DC21F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B6B96B-732E-4DB8-A9CC-9B33E61ED5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
   <si>
     <t>Планирование</t>
   </si>
@@ -179,6 +179,21 @@
   </si>
   <si>
     <t>ScrollLock</t>
+  </si>
+  <si>
+    <t>Лишнее значение устройства</t>
+  </si>
+  <si>
+    <t>Начал рассматривать варианты не с самого простого</t>
+  </si>
+  <si>
+    <t>Лишнее состояние</t>
+  </si>
+  <si>
+    <t>Неверное распределение ответственности между слоями</t>
+  </si>
+  <si>
+    <t>жена</t>
   </si>
 </sst>
 </file>
@@ -789,10 +804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,14 +926,56 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <v>0.38194444444444442</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <v>0.3840277777777778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45087</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="2">
+        <v>0.46875</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="2">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="2">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="D23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="2">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="2">
+        <v>0.48194444444444445</v>
       </c>
     </row>
   </sheetData>
@@ -934,10 +991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92537BEB-AFE4-4F81-B9DE-E14F7EC23022}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +1004,7 @@
     <col min="3" max="4" width="23.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="60.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -994,6 +1051,52 @@
       </c>
       <c r="G2" s="1" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B6B96B-732E-4DB8-A9CC-9B33E61ED5EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C6E314-7629-49EC-8318-387B9974200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводка" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
   <si>
     <t>Планирование</t>
   </si>
@@ -194,6 +194,12 @@
   </si>
   <si>
     <t>жена</t>
+  </si>
+  <si>
+    <t>Изменение Y отсчитывается не в ту сторону</t>
+  </si>
+  <si>
+    <t>Недостаточно тщательное выполнение кода в голове</t>
   </si>
 </sst>
 </file>
@@ -804,10 +810,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,6 +984,22 @@
         <v>0.48194444444444445</v>
       </c>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>45087</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="2">
+        <v>0.49236111111111108</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{BFD2BB00-6378-472B-9B2B-75A730D614EE}">
@@ -991,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92537BEB-AFE4-4F81-B9DE-E14F7EC23022}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1026,7 @@
     <col min="3" max="4" width="23.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="60.28515625" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1044,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -1067,7 +1089,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -1090,13 +1112,36 @@
         <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1108,7 +1153,7 @@
           <x14:formula1>
             <xm:f>Данные!$A$2:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C1048576 D1:D1048576</xm:sqref>
+          <xm:sqref>C1:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{93E096B7-1FBC-438E-92A3-C6A8DF29811F}">
           <x14:formula1>
@@ -1132,7 +1177,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98593D4A-3452-4915-93C9-2BC4CA53D2CF}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/00_task/psp.xlsx
+++ b/00_task/psp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zholu\Documents\Programming\cleanarch\00_task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C6E314-7629-49EC-8318-387B9974200E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1AEEB8-1281-4B40-81F4-FECE7F26298C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{92739D6D-7919-4FB4-9076-00A3E99E5C9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводка" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="68">
   <si>
     <t>Планирование</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Дата</t>
   </si>
   <si>
-    <t>Начало</t>
-  </si>
-  <si>
     <t>Прерывания</t>
   </si>
   <si>
@@ -200,6 +197,42 @@
   </si>
   <si>
     <t>Недостаточно тщательное выполнение кода в голове</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Комментарий</t>
+  </si>
+  <si>
+    <t>Объём проекта (СК)</t>
+  </si>
+  <si>
+    <t>Добавлено (СК)</t>
+  </si>
+  <si>
+    <t>Изменено (СК)</t>
+  </si>
+  <si>
+    <t>Изменено (%)</t>
+  </si>
+  <si>
+    <t>Удалено (СК)</t>
+  </si>
+  <si>
+    <t>Чистое время работы (мин)</t>
+  </si>
+  <si>
+    <t>Добавления (СК/ч)</t>
+  </si>
+  <si>
+    <t>Изменения (СК/ч)</t>
+  </si>
+  <si>
+    <t>Доб.+Изм. (СК/ч)</t>
+  </si>
+  <si>
+    <t>Коммит</t>
   </si>
 </sst>
 </file>
@@ -247,15 +280,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -586,29 +625,29 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>35</v>
-      </c>
-      <c r="D1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="7">
+        <v>32</v>
+      </c>
+      <c r="B2" s="5">
         <v>200</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <f>SUM(B14:B18)</f>
@@ -621,7 +660,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <f>SUM(B15:B17)</f>
@@ -634,25 +673,25 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="6">
+        <v>38</v>
+      </c>
+      <c r="B5" s="4">
         <f>B2/B4*60</f>
         <v>100</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <f>C2/C4*60</f>
         <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7">
         <f>SUM(E14:E18)</f>
@@ -665,137 +704,137 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5">
+        <v>40</v>
+      </c>
+      <c r="B8" s="3">
         <f>B7/B4*60</f>
         <v>4.5</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <f>C7/C4*60</f>
         <v>4.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
-      </c>
-      <c r="E12" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
       </c>
-      <c r="D13" t="s">
-        <v>36</v>
-      </c>
       <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
         <v>34</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>35</v>
-      </c>
-      <c r="G13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="5">
         <v>20</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>30</v>
       </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7">
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="7">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5">
         <v>30</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>60</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>2</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="7">
+        <v>11</v>
+      </c>
+      <c r="B16" s="5">
         <v>60</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>120</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
         <v>30</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>60</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="7">
+        <v>13</v>
+      </c>
+      <c r="B18" s="5">
         <v>20</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>40</v>
       </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -810,199 +849,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0B38188-8D4C-479A-BEB8-B60DCCD00AF4}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="7" customWidth="1"/>
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
         <v>45086</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>0.49861111111111112</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>0.5083333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6">
         <v>45086</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="7">
+        <v>0.50902777777777775</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>0.52152777777777781</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="7">
+        <v>0.52708333333333335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="7">
+        <v>0.53125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
-        <v>0.50902777777777775</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C6" s="2">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C7" s="2">
-        <v>0.52708333333333335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C8" s="2">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="B10" s="6">
         <v>45086</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="7">
+        <v>0.63263888888888886</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="7">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0.34166666666666662</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="7">
+        <v>0.375</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="7">
+        <v>0.37986111111111115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="7">
+        <v>0.38125000000000003</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="7">
+        <v>0.38194444444444442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="7">
+        <v>0.3840277777777778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="7">
+        <v>0.46875</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="7">
+        <v>0.47152777777777777</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="7">
+        <v>0.47638888888888892</v>
+      </c>
+      <c r="D23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="7">
+        <v>0.4770833333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="7">
+        <v>0.48194444444444445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="2">
-        <v>0.63263888888888886</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="2">
+      <c r="B27" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="7">
+        <v>0.49236111111111108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C30" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="7">
+        <v>0.50555555555555554</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B33" s="6">
+        <v>45087</v>
+      </c>
+      <c r="C33" s="7">
+        <v>0.64583333333333337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="7">
         <v>0.65625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>45087</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.34166666666666662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="2">
-        <v>0.37986111111111115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="2">
-        <v>0.38125000000000003</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C17" s="2">
-        <v>0.38194444444444442</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C18" s="2">
-        <v>0.3840277777777778</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>45087</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.46249999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C21" s="2">
-        <v>0.46875</v>
-      </c>
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C22" s="2">
-        <v>0.47152777777777777</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C23" s="2">
-        <v>0.47638888888888892</v>
-      </c>
-      <c r="D23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="2">
-        <v>0.4770833333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C25" s="2">
-        <v>0.48194444444444445</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>45087</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.4826388888888889</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="2">
-        <v>0.49236111111111108</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{BFD2BB00-6378-472B-9B2B-75A730D614EE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{BFD2BB00-6378-472B-9B2B-75A730D614EE}">
       <formula1>"Планирование, Проектирование, Кодирование, Тестирование, Рефлексия"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1022,7 +1092,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.85546875" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="2" customWidth="1"/>
     <col min="3" max="4" width="23.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="21.42578125" customWidth="1"/>
@@ -1031,117 +1101,117 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B2" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="B3" s="4">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="B5" s="4">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1175,15 +1245,405 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98593D4A-3452-4915-93C9-2BC4CA53D2CF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="26" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>45086</v>
+      </c>
+      <c r="B3" s="7">
+        <v>0.65625</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3">
+        <f>D2+E3</f>
+        <v>101</v>
+      </c>
+      <c r="E3">
+        <f>29+72</f>
+        <v>101</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <f>F3/D3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>34</v>
+      </c>
+      <c r="J3" s="9">
+        <f>E3/I3*60</f>
+        <v>178.23529411764707</v>
+      </c>
+      <c r="K3" s="9">
+        <f>F3/J3*60</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="9">
+        <f>J3+K3</f>
+        <v>178.23529411764707</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0.3840277777777778</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4">
+        <f>D3+E4</f>
+        <v>257</v>
+      </c>
+      <c r="E4">
+        <f>47+109</f>
+        <v>156</v>
+      </c>
+      <c r="F4">
+        <f>1+3</f>
+        <v>4</v>
+      </c>
+      <c r="G4" s="8">
+        <f>F4/D4</f>
+        <v>1.556420233463035E-2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>53</v>
+      </c>
+      <c r="J4" s="9">
+        <f>E4/I4*60</f>
+        <v>176.60377358490564</v>
+      </c>
+      <c r="K4" s="9">
+        <f>F4/I4*60</f>
+        <v>4.5283018867924527</v>
+      </c>
+      <c r="L4" s="9">
+        <f>J4+K4</f>
+        <v>181.1320754716981</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B5" s="7">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5">
+        <f>D4+E5</f>
+        <v>336</v>
+      </c>
+      <c r="E5">
+        <f>41+38</f>
+        <v>79</v>
+      </c>
+      <c r="F5">
+        <f>17+3</f>
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <f>F5/D5</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>23</v>
+      </c>
+      <c r="J5" s="9">
+        <f>E5/I5*60</f>
+        <v>206.08695652173913</v>
+      </c>
+      <c r="K5" s="9">
+        <f>F5/I5*60</f>
+        <v>52.173913043478258</v>
+      </c>
+      <c r="L5" s="9">
+        <f>J5+K5</f>
+        <v>258.26086956521738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>45087</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <f>D5+E6</f>
+        <v>411</v>
+      </c>
+      <c r="E6">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <f>F6/D6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>14</v>
+      </c>
+      <c r="J6" s="9">
+        <f>E6/I6*60</f>
+        <v>321.42857142857139</v>
+      </c>
+      <c r="K6" s="9">
+        <f>F6/I6*60</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="9">
+        <f>J6+K6</f>
+        <v>321.42857142857139</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6"/>
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="7"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6"/>
+      <c r="B36" s="7"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6"/>
+      <c r="B37" s="7"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="7"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+      <c r="B39" s="7"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6"/>
+      <c r="B40" s="7"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="7"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="7"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="7"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="7"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1205,13 +1665,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1219,70 +1679,70 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
